--- a/3.results/model_selection/sterne_caugek_R_4_add_spatial_effects.xlsx
+++ b/3.results/model_selection/sterne_caugek_R_4_add_spatial_effects.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">...1</t>
   </si>
@@ -71,15 +71,6 @@
     <t xml:space="preserve">beta_log_bathymetry</t>
   </si>
   <si>
-    <t xml:space="preserve">beta_mean_winter_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_spring_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_summer_SST</t>
-  </si>
-  <si>
     <t xml:space="preserve">beta_mean_CHL</t>
   </si>
   <si>
@@ -95,15 +86,6 @@
     <t xml:space="preserve">sd_beta_log_bathymetry</t>
   </si>
   <si>
-    <t xml:space="preserve">sd_beta_mean_winter_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_spring_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_summer_SST</t>
-  </si>
-  <si>
     <t xml:space="preserve">sd_beta_mean_CHL</t>
   </si>
   <si>
@@ -119,7 +101,13 @@
     <t xml:space="preserve">without spatial</t>
   </si>
   <si>
-    <t xml:space="preserve">with spatial</t>
+    <t xml:space="preserve">with spatial exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with sp shpere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with sp gaussian</t>
   </si>
 </sst>
 </file>
@@ -565,147 +553,111 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.044</v>
+        <v>1.023</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>819.4</v>
+        <v>728.5</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0.55</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>383</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="R2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-0.54</v>
+        <v>-1.53</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>-0.68</v>
+        <v>2.45</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>-0.14</v>
+        <v>-1.41</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>-0.46</v>
+        <v>0.55</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>1.96</v>
+        <v>-0.93</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>-0.39</v>
+        <v>0.61</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>-0.89</v>
+        <v>0.47</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>0.9</v>
+        <v>0.34</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AH2" s="1" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.248</v>
+        <v>2.778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>37</v>
+        <v>35.9</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.81</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0.55</v>
@@ -717,25 +669,25 @@
         <v>0.5</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>871</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q3" s="1" t="n">
         <v>1528</v>
@@ -744,92 +696,246 @@
         <v>2</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.58</v>
+        <v>-1.63</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>-0.86</v>
+        <v>2.56</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>-0.1</v>
+        <v>-1.43</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>-0.55</v>
+        <v>0.55</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>2.07</v>
+        <v>-0.99</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>-0.36</v>
+        <v>0.68</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>0.32</v>
+        <v>0.57</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>-0.92</v>
+        <v>0.55</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>0.98</v>
+        <v>0.39</v>
       </c>
       <c r="AB3" s="1" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1281</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1531</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="V4" s="1" t="n">
         <v>0.59</v>
       </c>
-      <c r="AC3" s="1" t="n">
+      <c r="W4" s="1" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1280</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>1533</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="X5" s="1" t="n">
         <v>0.66</v>
       </c>
-      <c r="AD3" s="1" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AG3" s="1" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AH3" s="1" t="n">
-        <v>0.53</v>
+      <c r="Y5" s="1" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Z5" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="cellIs" dxfId="0" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E2:E5">
     <cfRule type="cellIs" dxfId="0" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+  <conditionalFormatting sqref="F2:F5">
     <cfRule type="cellIs" dxfId="0" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="0" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="H2:H5">
     <cfRule type="cellIs" dxfId="0" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="I2:I5">
     <cfRule type="cellIs" dxfId="0" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="J2:J5">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -839,10 +945,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>J2&lt;810</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+      <formula>J2&lt;806</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -852,10 +958,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="13">
-      <formula>K2&lt;101</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+      <formula>K2&lt;97</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -865,10 +971,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>L2&lt;387</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
+      <formula>L2&lt;386</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -878,10 +984,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>M2&lt;1288</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
+      <formula>M2&lt;1283</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N5">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -891,10 +997,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>N2&lt;794</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
+      <formula>N2&lt;789</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -904,10 +1010,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>O2&lt;98</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
+      <formula>O2&lt;95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -917,10 +1023,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>P2&lt;386</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
+      <formula>P2&lt;385</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -930,7 +1036,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>Q2&lt;1268</formula>
+      <formula>Q2&lt;1263</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
